--- a/Data/Processed/Angiosperms/missing_powo_ipni/Cannaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Cannaceae.xlsx
@@ -10937,7 +10937,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -10947,7 +10947,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liliac. [Redouté] 6: t. 331. 1811 </t>
+          <t>Liliac. [Redouté] 6: t. 331. 1811</t>
         </is>
       </c>
       <c r="J192" t="b">
